--- a/output/below_50/tRNA-SeC-TCA-1-1.xlsx
+++ b/output/below_50/tRNA-SeC-TCA-1-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
   <si>
     <t>chr19</t>
   </si>
@@ -186,72 +186,6 @@
   </si>
   <si>
     <t>1.55475E+11</t>
-  </si>
-  <si>
-    <t>45982003</t>
-  </si>
-  <si>
-    <t>45982026</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>45982023</t>
-  </si>
-  <si>
-    <t>TATGGTCGCGTCCTTTGGAA</t>
-  </si>
-  <si>
-    <t>66% (55)</t>
-  </si>
-  <si>
-    <t>74% (57)</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 25, Doench 2016: 66%, Moreno-Mateos: 74%</t>
-  </si>
-  <si>
-    <t>39080873902</t>
-  </si>
-  <si>
-    <t>45982013</t>
-  </si>
-  <si>
-    <t>45982036</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>45982033</t>
-  </si>
-  <si>
-    <t>TCCTTTGGAAAGGTGTGAGA</t>
-  </si>
-  <si>
-    <t>75% (58)</t>
-  </si>
-  <si>
-    <t>57% (48)</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 48, Doench 2016: 75%, Moreno-Mateos: 57%</t>
-  </si>
-  <si>
-    <t>3.96834E+11</t>
   </si>
 </sst>
 </file>
@@ -296,7 +230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -656,124 +590,6 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>66</v>
-      </c>
-      <c r="R7" t="s">
-        <v>67</v>
-      </c>
-      <c r="S7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" t="s">
-        <v>71</v>
-      </c>
-      <c r="N8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O8" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S8" t="s">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
